--- a/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -77595,7 +77596,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr"/>
       <c r="E380" t="inlineStr">
         <is>
           <t>91.38</t>
@@ -78043,6 +78043,7270 @@
       </c>
       <c r="H392" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H191"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>237.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.2030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>528.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.9719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.9918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.6756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0571</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7686</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.5804</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安上证180ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>226.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7554</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9978</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9114</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6675</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5774</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5290</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5124</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4486</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2552</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1461</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9860</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9527</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9478</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7804</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7071</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001548</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘上证50指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6194</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5675</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5057</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4942</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001549</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘上证50指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510800</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510100</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达上证50ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159973</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>弘毅远方国证民企领先100ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510710</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时上证50ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510850</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>540012</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>34.12</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>502048</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008240</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>64.88</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>502040</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长盛上证50指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008241</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159986</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>弘毅远方国证消费100ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008991</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>162307</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>海富通中证100指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>510600</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>申万菱信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>502020</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国金上证50指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>510680</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>万家上证50ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>161213</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国投瑞银中证下游消费与服务产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>740101</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>长安沪深300非周期指数</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>920012</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中金汇越量化对冲策略3个月定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>510860</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>兴业上证50ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>920926</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中金汇越量化对冲策略3个月定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>516400</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>富国中证ESG120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>001149</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>012875</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>52.05</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>52.05</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010224</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>海富通中证100指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>008992</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -85312,4 +85313,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>190</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>168.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>708</v>
+      </c>
+      <c r="D4" t="n">
+        <v>330.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>943</v>
+      </c>
+      <c r="D5" t="n">
+        <v>455.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -85321,7 +85322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85332,17 +85333,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -85352,14 +85373,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>190</v>
-      </c>
-      <c r="D2" t="n">
-        <v>117.44</v>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>691.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.4269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -85368,14 +85411,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>168.37</v>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>243.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.8749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -85384,14 +85449,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>708</v>
-      </c>
-      <c r="D4" t="n">
-        <v>330.2</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.6283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -85400,13 +85487,7971 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.8797</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.9810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安上证180ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>228.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.9390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.6683</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1941</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1524</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1296</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6672</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5637</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4641</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2420</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1576</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1465</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9755</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8686</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8058</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7096</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001548</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘上证50指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6528</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6009</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5837</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4055</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001549</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘上证50指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>561130</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国中证新华社民族品牌工程ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510100</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达上证50ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510710</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时上证50ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159973</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>弘毅远方国证民企领先100ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>510800</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012394</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>农银中证新华社民族品牌指数</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510850</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>540012</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008240</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011595</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>502048</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>502040</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长盛上证50指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008241</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008991</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>159986</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>弘毅远方国证消费100ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>510600</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>申万菱信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>502020</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>国金上证50指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011596</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>920012</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中金汇越量化对冲策略3个月定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>50.94</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>510680</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>万家上证50ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>920926</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中金汇越量化对冲策略3个月定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>50.94</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001149</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>012875</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>008992</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D2" t="n">
+        <v>137.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>190</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>391</v>
+      </c>
+      <c r="D4" t="n">
+        <v>168.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>708</v>
+      </c>
+      <c r="D5" t="n">
+        <v>330.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>943</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>455.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -93350,7 +93351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93361,17 +93362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -93381,14 +93402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D2" t="n">
-        <v>137.62</v>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>243.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.3391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -93397,14 +93440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>190</v>
-      </c>
-      <c r="D3" t="n">
-        <v>117.44</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -93413,14 +93478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>391</v>
-      </c>
-      <c r="D4" t="n">
-        <v>168.37</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8778</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -93429,14 +93516,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>708</v>
-      </c>
-      <c r="D5" t="n">
-        <v>330.2</v>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3670</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -93445,13 +93554,5599 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1420</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7837</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3799</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5896</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2747</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1447</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0623</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9849</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8407</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7422</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7197</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6793</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6309</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6301</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159973</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>弘毅远方国证民企领先100ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012394</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>农银中证新华社民族品牌指数</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>561130</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国中证新华社民族品牌工程ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008991</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159986</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>弘毅远方国证消费100ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013480</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013481</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008992</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.76000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>210</v>
+      </c>
+      <c r="D3" t="n">
+        <v>137.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>190</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>391</v>
+      </c>
+      <c r="D5" t="n">
+        <v>168.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>708</v>
+      </c>
+      <c r="D6" t="n">
+        <v>330.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>943</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>455.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600276-恒瑞医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -99029,7 +99030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99040,17 +99041,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -99060,14 +99081,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.76000000000001</v>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>241.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -99076,14 +99119,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>210</v>
-      </c>
-      <c r="D3" t="n">
-        <v>137.62</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.8316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -99092,14 +99157,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>190</v>
-      </c>
-      <c r="D4" t="n">
-        <v>117.44</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.9604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -99108,14 +99195,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>391</v>
-      </c>
-      <c r="D5" t="n">
-        <v>168.37</v>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -99124,14 +99233,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>708</v>
-      </c>
-      <c r="D6" t="n">
-        <v>330.2</v>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5878</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -99140,13 +99271,6715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0591</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4976</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2224</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5397</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4527</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0695</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9713</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8620</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8315</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7917</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6476</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159973</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>弘毅远方国证民企领先100ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>561990</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008991</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159986</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>弘毅远方国证消费100ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>013480</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>68.91</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>013481</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008992</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>178</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>148</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.76000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>210</v>
+      </c>
+      <c r="D4" t="n">
+        <v>137.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>190</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>391</v>
+      </c>
+      <c r="D6" t="n">
+        <v>168.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>708</v>
+      </c>
+      <c r="D7" t="n">
+        <v>330.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>943</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>455.41</v>
       </c>
     </row>
